--- a/Labal_making/Labal_making/서식화 본.xlsx
+++ b/Labal_making/Labal_making/서식화 본.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\라벨제조기\Labal_making\Labal_making\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1049DCE1-99FC-4485-8025-4EC4EEE62D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCB6FAD-04E1-414B-8E33-271CC9F9C6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5137B999-CAA5-4064-ADDB-5A024D49BD8C}"/>
   </bookViews>
@@ -631,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5858DCE-0D2A-4018-944C-C79EE33293C1}">
   <dimension ref="B1:AH371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6:U10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X22" sqref="X22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2064,9 +2064,9 @@
     </row>
     <row r="41" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B41" s="11"/>
-      <c r="D41" s="15"/>
+      <c r="D41" s="11"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="12"/>
+      <c r="F41" s="11"/>
       <c r="G41" s="4"/>
       <c r="H41" s="12"/>
       <c r="I41" s="4"/>
@@ -12657,16 +12657,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="L36:L40"/>
-    <mergeCell ref="N36:N40"/>
-    <mergeCell ref="P36:U40"/>
-    <mergeCell ref="Y26:Z28"/>
-    <mergeCell ref="AB26:AC28"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="P2:U5"/>
+    <mergeCell ref="Y3:AB5"/>
+    <mergeCell ref="AD3:AG5"/>
+    <mergeCell ref="P6:U10"/>
+    <mergeCell ref="Y7:AB9"/>
+    <mergeCell ref="AD7:AG9"/>
+    <mergeCell ref="AE22:AF24"/>
+    <mergeCell ref="P25:U30"/>
+    <mergeCell ref="B11:B34"/>
+    <mergeCell ref="D11:D34"/>
+    <mergeCell ref="F11:F34"/>
+    <mergeCell ref="H11:H34"/>
+    <mergeCell ref="J11:J34"/>
+    <mergeCell ref="L11:L34"/>
     <mergeCell ref="AE26:AF28"/>
     <mergeCell ref="Y30:Z32"/>
     <mergeCell ref="P31:U35"/>
     <mergeCell ref="B36:B40"/>
-    <mergeCell ref="D36:D41"/>
     <mergeCell ref="F36:F40"/>
     <mergeCell ref="H36:H40"/>
     <mergeCell ref="J36:J40"/>
@@ -12678,20 +12687,11 @@
     <mergeCell ref="P18:U24"/>
     <mergeCell ref="Y22:Z24"/>
     <mergeCell ref="AB22:AC24"/>
-    <mergeCell ref="AE22:AF24"/>
-    <mergeCell ref="P25:U30"/>
-    <mergeCell ref="B11:B34"/>
-    <mergeCell ref="D11:D34"/>
-    <mergeCell ref="F11:F34"/>
-    <mergeCell ref="H11:H34"/>
-    <mergeCell ref="J11:J34"/>
-    <mergeCell ref="L11:L34"/>
-    <mergeCell ref="P2:U5"/>
-    <mergeCell ref="Y3:AB5"/>
-    <mergeCell ref="AD3:AG5"/>
-    <mergeCell ref="P6:U10"/>
-    <mergeCell ref="Y7:AB9"/>
-    <mergeCell ref="AD7:AG9"/>
+    <mergeCell ref="L36:L40"/>
+    <mergeCell ref="N36:N40"/>
+    <mergeCell ref="P36:U40"/>
+    <mergeCell ref="Y26:Z28"/>
+    <mergeCell ref="AB26:AC28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24729,41 +24729,41 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="AE22:AF24"/>
+    <mergeCell ref="Y26:Z28"/>
+    <mergeCell ref="AB26:AC28"/>
+    <mergeCell ref="Y3:AB5"/>
+    <mergeCell ref="AD3:AG5"/>
+    <mergeCell ref="Y7:AB9"/>
+    <mergeCell ref="AD7:AG9"/>
+    <mergeCell ref="P2:U5"/>
+    <mergeCell ref="P6:U10"/>
+    <mergeCell ref="B11:B34"/>
+    <mergeCell ref="D11:D34"/>
+    <mergeCell ref="F11:F34"/>
+    <mergeCell ref="H11:H34"/>
+    <mergeCell ref="J11:J34"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="D36:D41"/>
+    <mergeCell ref="F36:F40"/>
+    <mergeCell ref="H36:H40"/>
+    <mergeCell ref="J36:J40"/>
     <mergeCell ref="L36:L40"/>
     <mergeCell ref="N36:N40"/>
     <mergeCell ref="N11:N34"/>
     <mergeCell ref="Y11:AB15"/>
     <mergeCell ref="AD11:AG15"/>
     <mergeCell ref="Y22:Z24"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="D36:D41"/>
-    <mergeCell ref="F36:F40"/>
-    <mergeCell ref="H36:H40"/>
-    <mergeCell ref="J36:J40"/>
     <mergeCell ref="L11:L34"/>
     <mergeCell ref="P18:U24"/>
     <mergeCell ref="P25:U30"/>
     <mergeCell ref="P31:U35"/>
     <mergeCell ref="AE26:AF28"/>
-    <mergeCell ref="B11:B34"/>
-    <mergeCell ref="D11:D34"/>
-    <mergeCell ref="F11:F34"/>
-    <mergeCell ref="H11:H34"/>
-    <mergeCell ref="J11:J34"/>
     <mergeCell ref="P36:U40"/>
     <mergeCell ref="Y17:AB20"/>
     <mergeCell ref="Y30:Z32"/>
-    <mergeCell ref="Y3:AB5"/>
-    <mergeCell ref="AD3:AG5"/>
-    <mergeCell ref="Y7:AB9"/>
-    <mergeCell ref="AD7:AG9"/>
-    <mergeCell ref="P2:U5"/>
-    <mergeCell ref="P6:U10"/>
     <mergeCell ref="P11:U17"/>
     <mergeCell ref="AB22:AC24"/>
-    <mergeCell ref="AE22:AF24"/>
-    <mergeCell ref="Y26:Z28"/>
-    <mergeCell ref="AB26:AC28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
